--- a/xlsx/經驗_intext.xlsx
+++ b/xlsx/經驗_intext.xlsx
@@ -29,7 +29,7 @@
     <t>知識</t>
   </si>
   <si>
-    <t>政策_政策_政治學_經驗</t>
+    <t>体育运动_体育运动_文化_經驗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E5%B7%A7</t>
